--- a/PyDevShamroq/src/edu/ttu/acm/dataset-cfr_45_164_510_TTU_Review.xlsx
+++ b/PyDevShamroq/src/edu/ttu/acm/dataset-cfr_45_164_510_TTU_Review.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\PycharmProjects\research\PyDevShamroq\src\edu\ttu\acm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A06B74CF-4B82-441A-82FF-BCB70BD5D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4B3BF-C380-4D25-A35E-9743F190A663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset-cfr_45_164_510" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dataset-cfr_45_164_510'!$A$1:$G$18</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,11 +990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,6 +1224,7 @@
       <c r="A30" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
